--- a/import_this_excel_example.xlsx
+++ b/import_this_excel_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>domain_name</t>
   </si>
@@ -52,21 +52,9 @@
     <t xml:space="preserve">registrant_fax </t>
   </si>
   <si>
-    <t>http://www.codeinsect.com</t>
-  </si>
-  <si>
     <t>eWebGuru</t>
   </si>
   <si>
-    <t>CodeInsect</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>Bruhaspatinath</t>
   </si>
   <si>
-    <t>http://www.kishor10d.com</t>
-  </si>
-  <si>
     <t>kishor10d</t>
   </si>
   <si>
@@ -92,6 +77,18 @@
   </si>
   <si>
     <t>expiry_date</t>
+  </si>
+  <si>
+    <t>http://www.code-insect.com</t>
+  </si>
+  <si>
+    <t>http://www.kishor-10d.com</t>
+  </si>
+  <si>
+    <t>Code-Insect</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -507,40 +504,40 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>110001</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
-        <v>41281</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>411001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M2">
         <v>9890098900</v>
@@ -548,40 +545,40 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>110001</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>41281</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>411001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>9890098900</v>
@@ -592,37 +589,37 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>110001</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
-        <v>41281</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>411001</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M4">
         <v>9890098900</v>

--- a/import_this_excel_example.xlsx
+++ b/import_this_excel_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>domain_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">registrant_fax </t>
   </si>
   <si>
-    <t>eWebGuru</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -79,16 +76,40 @@
     <t>expiry_date</t>
   </si>
   <si>
-    <t>http://www.code-insect.com</t>
-  </si>
-  <si>
-    <t>http://www.kishor-10d.com</t>
-  </si>
-  <si>
-    <t>Code-Insect</t>
-  </si>
-  <si>
     <t>Delhi</t>
+  </si>
+  <si>
+    <t>https://www.cmsimple.org/</t>
+  </si>
+  <si>
+    <t>http://www.kishor10d.com</t>
+  </si>
+  <si>
+    <t>https://www.codekrypt.com/</t>
+  </si>
+  <si>
+    <t>https://flarum.org/</t>
+  </si>
+  <si>
+    <t>https://www.dokuwiki.org/</t>
+  </si>
+  <si>
+    <t>eWebsiteGuru</t>
+  </si>
+  <si>
+    <t>cssimple</t>
+  </si>
+  <si>
+    <t>flarum</t>
+  </si>
+  <si>
+    <t>dokuwiki</t>
+  </si>
+  <si>
+    <t>codeFreelance</t>
+  </si>
+  <si>
+    <t>pune</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -504,10 +525,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>44111</v>
@@ -516,28 +537,28 @@
         <v>46759</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>110001</v>
+        <v>140001</v>
       </c>
       <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="M2">
         <v>9890098900</v>
@@ -545,10 +566,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>44111</v>
@@ -557,28 +578,28 @@
         <v>46759</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>110001</v>
       </c>
       <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="M3">
         <v>9890098900</v>
@@ -589,7 +610,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>44111</v>
@@ -598,31 +619,154 @@
         <v>46759</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>110001</v>
+        <v>140001</v>
       </c>
       <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="M4">
         <v>9890098900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>110050</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>8218243411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D6" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>110050</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>8218243411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44111</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46759</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>110050</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>8218243411</v>
       </c>
     </row>
   </sheetData>
@@ -633,8 +777,11 @@
     <hyperlink ref="L4" r:id="rId4"/>
     <hyperlink ref="A3" r:id="rId5"/>
     <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="L6" r:id="rId8"/>
+    <hyperlink ref="L7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>